--- a/Java/_Playground/NBA Yahli/NBA-Database/Excel_Tables/Teams.xlsx
+++ b/Java/_Playground/NBA Yahli/NBA-Database/Excel_Tables/Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackcooper/Documents/SQL/NBA-Database/Excel Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Java/_Playground/NBA Yahli/NBA-Database/Excel_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79C7AB-56E3-6D44-B4ED-3BDF8582D63F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FC474-95B5-B644-B955-23FFA7F1B3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="27500" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="3800" windowWidth="27500" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Denver Nuggets</t>
   </si>
@@ -299,6 +299,75 @@
   </si>
   <si>
     <t>PHO</t>
+  </si>
+  <si>
+    <t>Gms</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>FGP</t>
+  </si>
+  <si>
+    <t>ThreeP</t>
+  </si>
+  <si>
+    <t>ThreePA</t>
+  </si>
+  <si>
+    <t>ThreePP</t>
+  </si>
+  <si>
+    <t>TwoP</t>
+  </si>
+  <si>
+    <t>TwoPA</t>
+  </si>
+  <si>
+    <t>TwoPP</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>ORB</t>
+  </si>
+  <si>
+    <t>DRB</t>
+  </si>
+  <si>
+    <t>TRB</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>TOV</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PTS</t>
   </si>
 </sst>
 </file>
@@ -864,9 +933,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -904,7 +973,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1010,7 +1079,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1152,7 +1221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1243,7 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1187,8 +1256,77 @@
       <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1201,8 +1339,77 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
+      <c r="E2" s="2">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19730</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3509</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6981</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="J2" s="2">
+        <v>926</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2370</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2583</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4611</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1360</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1668</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="S2" s="2">
+        <v>691</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2877</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3568</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2402</v>
+      </c>
+      <c r="W2" s="2">
+        <v>656</v>
+      </c>
+      <c r="X2" s="2">
+        <v>612</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1267</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1607</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>9304</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1215,8 +1422,77 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
+      <c r="E3" s="2">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19755</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3174</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6906</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1256</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3470</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1918</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3436</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1609</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2061</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="S3" s="2">
+        <v>739</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2825</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3564</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1767</v>
+      </c>
+      <c r="W3" s="2">
+        <v>699</v>
+      </c>
+      <c r="X3" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1135</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1597</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>9213</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1229,8 +1505,77 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
+      <c r="E4" s="2">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19955</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7241</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>837</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2312</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2663</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4929</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1716</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S4" s="2">
+        <v>712</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2924</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3636</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2195</v>
+      </c>
+      <c r="W4" s="2">
+        <v>657</v>
+      </c>
+      <c r="X4" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1223</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1570</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>9161</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1243,8 +1588,77 @@
       <c r="D5" t="s">
         <v>64</v>
       </c>
+      <c r="E5" s="2">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19830</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3383</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7169</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>968</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2705</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2415</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4464</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1422</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1790</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="S5" s="2">
+        <v>800</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2807</v>
+      </c>
+      <c r="U5" s="2">
+        <v>3607</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1995</v>
+      </c>
+      <c r="W5" s="2">
+        <v>626</v>
+      </c>
+      <c r="X5" s="2">
+        <v>500</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1095</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1783</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>9156</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1257,8 +1671,77 @@
       <c r="D6" t="s">
         <v>65</v>
       </c>
+      <c r="E6" s="2">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19730</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3311</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6950</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <v>981</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2636</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2330</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4314</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1488</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1909</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S6" s="2">
+        <v>694</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2761</v>
+      </c>
+      <c r="U6" s="2">
+        <v>3455</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1916</v>
+      </c>
+      <c r="W6" s="2">
+        <v>582</v>
+      </c>
+      <c r="X6" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1126</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1524</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>9091</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1271,8 +1754,77 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
+      <c r="E7" s="2">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19880</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3338</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7102</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="J7" s="2">
+        <v>940</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2536</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2398</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4566</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1404</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1830</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="S7" s="2">
+        <v>902</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2748</v>
+      </c>
+      <c r="U7" s="2">
+        <v>3650</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2059</v>
+      </c>
+      <c r="W7" s="2">
+        <v>627</v>
+      </c>
+      <c r="X7" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1227</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1533</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>9020</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1285,8 +1837,77 @@
       <c r="D8" t="s">
         <v>67</v>
       </c>
+      <c r="E8" s="2">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19780</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3349</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7098</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>901</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2445</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2448</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4653</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1405</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1868</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="S8" s="2">
+        <v>893</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2996</v>
+      </c>
+      <c r="U8" s="2">
+        <v>3889</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2221</v>
+      </c>
+      <c r="W8" s="2">
+        <v>682</v>
+      </c>
+      <c r="X8" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1353</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1811</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>9004</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1299,8 +1920,77 @@
       <c r="D9" t="s">
         <v>68</v>
       </c>
+      <c r="E9" s="2">
+        <v>82</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3365</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7063</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J9" s="2">
+        <v>658</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1845</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2707</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5218</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1592</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1980</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="S9" s="2">
+        <v>848</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2593</v>
+      </c>
+      <c r="U9" s="2">
+        <v>3441</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1861</v>
+      </c>
+      <c r="W9" s="2">
+        <v>689</v>
+      </c>
+      <c r="X9" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1021</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1495</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>8980</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1313,8 +2003,77 @@
       <c r="D10" t="s">
         <v>69</v>
       </c>
+      <c r="E10" s="2">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19705</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3302</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7004</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>777</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2196</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2525</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4808</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1556</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2095</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="S10" s="2">
+        <v>832</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2766</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3598</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1832</v>
+      </c>
+      <c r="W10" s="2">
+        <v>628</v>
+      </c>
+      <c r="X10" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1204</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>8937</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1327,8 +2086,77 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
+      <c r="E11" s="2">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2">
+        <v>19780</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3197</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7106</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J11" s="2">
+        <v>824</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2233</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2373</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4873</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1656</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2216</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="S11" s="2">
+        <v>827</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2901</v>
+      </c>
+      <c r="U11" s="2">
+        <v>3728</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1770</v>
+      </c>
+      <c r="W11" s="2">
+        <v>559</v>
+      </c>
+      <c r="X11" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1041</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1409</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>8874</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1341,8 +2169,77 @@
       <c r="D12" t="s">
         <v>69</v>
       </c>
+      <c r="E12" s="2">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2">
+        <v>19905</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3338</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7248</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>822</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2384</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2516</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4864</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1364</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1910</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="S12" s="2">
+        <v>876</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2927</v>
+      </c>
+      <c r="U12" s="2">
+        <v>3803</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1949</v>
+      </c>
+      <c r="W12" s="2">
+        <v>633</v>
+      </c>
+      <c r="X12" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1295</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1736</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>8862</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1355,8 +2252,77 @@
       <c r="D13" t="s">
         <v>71</v>
       </c>
+      <c r="E13" s="2">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19830</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3271</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7221</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>881</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2491</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2390</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4730</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1421</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1985</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1024</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2671</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3695</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1750</v>
+      </c>
+      <c r="W13" s="2">
+        <v>743</v>
+      </c>
+      <c r="X13" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1147</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1653</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>8844</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1369,8 +2335,77 @@
       <c r="D14" t="s">
         <v>72</v>
       </c>
+      <c r="E14" s="2">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2">
+        <v>19855</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3275</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7018</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J14" s="2">
+        <v>814</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2173</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2461</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4845</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1378</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1786</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S14" s="2">
+        <v>823</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2713</v>
+      </c>
+      <c r="U14" s="2">
+        <v>3536</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2065</v>
+      </c>
+      <c r="W14" s="2">
+        <v>645</v>
+      </c>
+      <c r="X14" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1196</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1746</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>8742</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1383,8 +2418,77 @@
       <c r="D15" t="s">
         <v>73</v>
       </c>
+      <c r="E15" s="2">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2">
+        <v>19855</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3136</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7114</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1041</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2924</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2095</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4190</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1428</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1850</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S15" s="2">
+        <v>792</v>
+      </c>
+      <c r="T15" s="2">
+        <v>2852</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3644</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1941</v>
+      </c>
+      <c r="W15" s="2">
+        <v>512</v>
+      </c>
+      <c r="X15" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1245</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1688</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>8741</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1397,8 +2501,77 @@
       <c r="D16" t="s">
         <v>74</v>
       </c>
+      <c r="E16" s="2">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2">
+        <v>19830</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3257</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6807</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J16" s="2">
+        <v>718</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2024</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2539</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4783</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1499</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1915</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="S16" s="2">
+        <v>688</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2579</v>
+      </c>
+      <c r="U16" s="2">
+        <v>3267</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1905</v>
+      </c>
+      <c r="W16" s="2">
+        <v>722</v>
+      </c>
+      <c r="X16" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1134</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1752</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>8731</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1411,8 +2584,77 @@
       <c r="D17" t="s">
         <v>75</v>
       </c>
+      <c r="E17" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2">
+        <v>19755</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3222</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7132</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>845</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2308</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2377</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4824</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1372</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1715</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S17" s="2">
+        <v>835</v>
+      </c>
+      <c r="T17" s="2">
+        <v>2893</v>
+      </c>
+      <c r="U17" s="2">
+        <v>3728</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1599</v>
+      </c>
+      <c r="W17" s="2">
+        <v>573</v>
+      </c>
+      <c r="X17" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1109</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1599</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>8661</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1425,8 +2667,77 @@
       <c r="D18" t="s">
         <v>76</v>
       </c>
+      <c r="E18" s="2">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19755</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3345</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7083</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J18" s="2">
+        <v>741</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2010</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2604</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5073</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1225</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1573</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S18" s="2">
+        <v>788</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2684</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3472</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1819</v>
+      </c>
+      <c r="W18" s="2">
+        <v>721</v>
+      </c>
+      <c r="X18" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1089</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1544</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>8656</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1439,8 +2750,77 @@
       <c r="D19" t="s">
         <v>77</v>
       </c>
+      <c r="E19" s="2">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2">
+        <v>19830</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3334</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7193</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J19" s="2">
+        <v>673</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1914</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2661</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5279</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1225</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1557</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="S19" s="2">
+        <v>859</v>
+      </c>
+      <c r="T19" s="2">
+        <v>2752</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3611</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1912</v>
+      </c>
+      <c r="W19" s="2">
+        <v>552</v>
+      </c>
+      <c r="X19" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1207</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1682</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>8566</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1453,8 +2833,77 @@
       <c r="D20" t="s">
         <v>78</v>
       </c>
+      <c r="E20" s="2">
+        <v>82</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19755</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3139</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6797</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J20" s="2">
+        <v>887</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2425</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2252</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4372</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1375</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1766</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S20" s="2">
+        <v>740</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2807</v>
+      </c>
+      <c r="U20" s="2">
+        <v>3547</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1839</v>
+      </c>
+      <c r="W20" s="2">
+        <v>708</v>
+      </c>
+      <c r="X20" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1205</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1608</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>8540</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1467,8 +2916,77 @@
       <c r="D21" t="s">
         <v>79</v>
       </c>
+      <c r="E21" s="2">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2">
+        <v>19805</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3141</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6975</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J21" s="2">
+        <v>939</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2492</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2202</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4483</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1308</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1697</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="S21" s="2">
+        <v>767</v>
+      </c>
+      <c r="T21" s="2">
+        <v>2878</v>
+      </c>
+      <c r="U21" s="2">
+        <v>3645</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1842</v>
+      </c>
+      <c r="W21" s="2">
+        <v>604</v>
+      </c>
+      <c r="X21" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1149</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1618</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>8529</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1481,8 +2999,77 @@
       <c r="D22" t="s">
         <v>80</v>
       </c>
+      <c r="E22" s="2">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19705</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3153</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7141</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="J22" s="2">
+        <v>763</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2286</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2390</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4855</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1453</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1962</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="S22" s="2">
+        <v>842</v>
+      </c>
+      <c r="T22" s="2">
+        <v>2776</v>
+      </c>
+      <c r="U22" s="2">
+        <v>3618</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1743</v>
+      </c>
+      <c r="W22" s="2">
+        <v>569</v>
+      </c>
+      <c r="X22" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1289</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1807</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>8522</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1495,8 +3082,77 @@
       <c r="D23" t="s">
         <v>81</v>
       </c>
+      <c r="E23" s="2">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2">
+        <v>19805</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3208</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7129</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J23" s="2">
+        <v>886</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2373</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2322</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4756</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1207</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1621</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="S23" s="2">
+        <v>830</v>
+      </c>
+      <c r="T23" s="2">
+        <v>2756</v>
+      </c>
+      <c r="U23" s="2">
+        <v>3586</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1868</v>
+      </c>
+      <c r="W23" s="2">
+        <v>628</v>
+      </c>
+      <c r="X23" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1103</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>1508</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>8509</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1509,8 +3165,77 @@
       <c r="D24" t="s">
         <v>82</v>
       </c>
+      <c r="E24" s="2">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2">
+        <v>19930</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3184</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6997</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J24" s="2">
+        <v>903</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2506</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2281</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4491</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1209</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1601</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.755</v>
+      </c>
+      <c r="S24" s="2">
+        <v>763</v>
+      </c>
+      <c r="T24" s="2">
+        <v>2801</v>
+      </c>
+      <c r="U24" s="2">
+        <v>3564</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1862</v>
+      </c>
+      <c r="W24" s="2">
+        <v>620</v>
+      </c>
+      <c r="X24" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1179</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1648</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>8480</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1523,8 +3248,77 @@
       <c r="D25" t="s">
         <v>83</v>
       </c>
+      <c r="E25" s="2">
+        <v>82</v>
+      </c>
+      <c r="F25" s="2">
+        <v>19730</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3182</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7042</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>844</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2405</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2338</v>
+      </c>
+      <c r="N25" s="2">
+        <v>4637</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1271</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1678</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="S25" s="2">
+        <v>722</v>
+      </c>
+      <c r="T25" s="2">
+        <v>2692</v>
+      </c>
+      <c r="U25" s="2">
+        <v>3414</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1921</v>
+      </c>
+      <c r="W25" s="2">
+        <v>622</v>
+      </c>
+      <c r="X25" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>1192</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>1579</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>8479</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1537,8 +3331,77 @@
       <c r="D26" t="s">
         <v>84</v>
       </c>
+      <c r="E26" s="2">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2">
+        <v>19705</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3130</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7015</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <v>917</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2544</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2213</v>
+      </c>
+      <c r="N26" s="2">
+        <v>4471</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1298</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1654</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="S26" s="2">
+        <v>743</v>
+      </c>
+      <c r="T26" s="2">
+        <v>2693</v>
+      </c>
+      <c r="U26" s="2">
+        <v>3436</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1946</v>
+      </c>
+      <c r="W26" s="2">
+        <v>638</v>
+      </c>
+      <c r="X26" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1276</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1606</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>8475</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1551,8 +3414,77 @@
       <c r="D27" t="s">
         <v>85</v>
       </c>
+      <c r="E27" s="2">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2">
+        <v>19855</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3170</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7285</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.435</v>
+      </c>
+      <c r="J27" s="2">
+        <v>906</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2549</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2264</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4736</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1194</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1574</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="S27" s="2">
+        <v>790</v>
+      </c>
+      <c r="T27" s="2">
+        <v>2873</v>
+      </c>
+      <c r="U27" s="2">
+        <v>3663</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1923</v>
+      </c>
+      <c r="W27" s="2">
+        <v>626</v>
+      </c>
+      <c r="X27" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1147</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1571</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>8440</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1565,8 +3497,77 @@
       <c r="D28" t="s">
         <v>86</v>
       </c>
+      <c r="E28" s="2">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2">
+        <v>19730</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3202</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J28" s="2">
+        <v>696</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1977</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2506</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5022</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1324</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1715</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S28" s="2">
+        <v>849</v>
+      </c>
+      <c r="T28" s="2">
+        <v>2777</v>
+      </c>
+      <c r="U28" s="2">
+        <v>3626</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1868</v>
+      </c>
+      <c r="W28" s="2">
+        <v>628</v>
+      </c>
+      <c r="X28" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>1078</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1408</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>8424</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1579,8 +3580,77 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
+      <c r="E29" s="2">
+        <v>82</v>
+      </c>
+      <c r="F29" s="2">
+        <v>19805</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3128</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7042</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J29" s="2">
+        <v>967</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2688</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2161</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4354</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1167</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1530</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="S29" s="2">
+        <v>666</v>
+      </c>
+      <c r="T29" s="2">
+        <v>2717</v>
+      </c>
+      <c r="U29" s="2">
+        <v>3383</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1858</v>
+      </c>
+      <c r="W29" s="2">
+        <v>578</v>
+      </c>
+      <c r="X29" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>1008</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1578</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>8390</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1593,8 +3663,77 @@
       <c r="D30" t="s">
         <v>87</v>
       </c>
+      <c r="E30" s="2">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2">
+        <v>19705</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3013</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6788</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J30" s="2">
+        <v>758</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2152</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2255</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4636</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1361</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1732</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="S30" s="2">
+        <v>779</v>
+      </c>
+      <c r="T30" s="2">
+        <v>2544</v>
+      </c>
+      <c r="U30" s="2">
+        <v>3323</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1767</v>
+      </c>
+      <c r="W30" s="2">
+        <v>613</v>
+      </c>
+      <c r="X30" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>1227</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>1900</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>8145</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1607,8 +3746,77 @@
       <c r="D31" t="s">
         <v>89</v>
       </c>
+      <c r="E31" s="2">
+        <v>82</v>
+      </c>
+      <c r="F31" s="2">
+        <v>19755</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3179</v>
+      </c>
+      <c r="H31" s="2">
+        <v>7063</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J31" s="2">
+        <v>738</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1967</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2441</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5096</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1008</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1371</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S31" s="2">
+        <v>777</v>
+      </c>
+      <c r="T31" s="2">
+        <v>2578</v>
+      </c>
+      <c r="U31" s="2">
+        <v>3355</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1768</v>
+      </c>
+      <c r="W31" s="2">
+        <v>643</v>
+      </c>
+      <c r="X31" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1125</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>1639</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>8104</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
